--- a/content/drafts/entitats/Jurisdiccions.xlsx
+++ b/content/drafts/entitats/Jurisdiccions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/60.Jurisdiccions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{6BD15B1C-BF2C-4484-9F2B-46C0059B0D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{32CCAA9D-C7C0-4841-8946-22E2060BD806}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{6BD15B1C-BF2C-4484-9F2B-46C0059B0D30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C914C389-0E9F-4A5D-841B-F25A1A833802}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9D446BCE-13F1-4B49-ABED-688A60484E0F}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Militar</t>
   </si>
   <si>
-    <t>Identifcador</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Nom entitat:</t>
+  </si>
+  <si>
+    <t>Identificador</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
     <sortCondition ref="A4:A11"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="26" xr3:uid="{AEFF37AE-69BB-4A92-AB0A-7C4F3EE7FFEE}" name="Identifcador" dataDxfId="2"/>
+    <tableColumn id="26" xr3:uid="{AEFF37AE-69BB-4A92-AB0A-7C4F3EE7FFEE}" name="Identificador" dataDxfId="2"/>
     <tableColumn id="36" xr3:uid="{9DEE2A90-94A2-4FE6-92EA-0298D318F01B}" name="Nom" dataDxfId="1"/>
     <tableColumn id="1" xr3:uid="{2D55A8AB-406E-40DC-BF1D-12E02F4447E8}" name="Descripció" dataDxfId="0"/>
   </tableColumns>
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -699,101 +699,101 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
